--- a/output/1Y_P25_1VAL-D.xlsx
+++ b/output/1Y_P25_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>13.8614</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>721.4279</v>
       </c>
-      <c r="G2" s="1">
-        <v>721.4279</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.129300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8614</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.129300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>14.3229</v>
       </c>
+      <c r="E3" s="1">
+        <v>721.4279</v>
+      </c>
       <c r="F3" s="1">
         <v>698.1826</v>
       </c>
-      <c r="G3" s="1">
-        <v>1419.6105</v>
-      </c>
       <c r="H3" s="1">
-        <v>20227.4619</v>
+        <v>10279.3369</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.0884</v>
+        <v>10279.3369</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.8614</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20227.4619</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.014</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>14.2341</v>
       </c>
+      <c r="E4" s="1">
+        <v>1419.6105</v>
+      </c>
       <c r="F4" s="1">
         <v>702.5383</v>
       </c>
-      <c r="G4" s="1">
-        <v>2122.1488</v>
-      </c>
       <c r="H4" s="1">
-        <v>30050.0507</v>
+        <v>20101.9683</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1366</v>
+        <v>20101.9683</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.0884</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30050.0507</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0059</v>
+        <v>-0.008699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>13.7456</v>
       </c>
+      <c r="E5" s="1">
+        <v>2122.1488</v>
+      </c>
       <c r="F5" s="1">
         <v>727.5055</v>
       </c>
-      <c r="G5" s="1">
-        <v>2849.6543</v>
-      </c>
       <c r="H5" s="1">
-        <v>38967.0275</v>
+        <v>29018.8987</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.0368</v>
+        <v>29018.8987</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.1366</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38967.0275</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.027</v>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>14.5325</v>
       </c>
+      <c r="E6" s="1">
+        <v>2849.6543</v>
+      </c>
       <c r="F6" s="1">
         <v>688.1129</v>
       </c>
-      <c r="G6" s="1">
-        <v>3537.7671</v>
-      </c>
       <c r="H6" s="1">
-        <v>51145.8532</v>
+        <v>41197.7369</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.1332</v>
+        <v>41197.7369</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>14.0368</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.75</v>
       </c>
-      <c r="L6" s="1">
-        <v>1923.5166</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8076.4834</v>
+        <v>1432.4504</v>
       </c>
       <c r="O6" s="1">
-        <v>1923.5166</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>53069.3698</v>
+        <v>-8567.5496</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0838</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>14.0538</v>
       </c>
+      <c r="E7" s="1">
+        <v>3537.7671</v>
+      </c>
       <c r="F7" s="1">
-        <v>731.1039</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4268.871</v>
+        <v>726.1122</v>
       </c>
       <c r="H7" s="1">
-        <v>59682.6591</v>
+        <v>49461.1685</v>
       </c>
       <c r="I7" s="1">
-        <v>60274.7881</v>
+        <v>1432.4504</v>
       </c>
       <c r="J7" s="1">
-        <v>14.1196</v>
+        <v>50893.6189</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50204.6358</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.1911</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10274.7881</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1648.7285</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61331.3876</v>
+        <v>-10204.6358</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0276</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>13.1873</v>
       </c>
+      <c r="E8" s="1">
+        <v>4263.8793</v>
+      </c>
       <c r="F8" s="1">
-        <v>779.1427</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5048.0137</v>
+        <v>773.823</v>
       </c>
       <c r="H8" s="1">
-        <v>66224.387</v>
+        <v>55937.4067</v>
       </c>
       <c r="I8" s="1">
-        <v>70549.5762</v>
+        <v>1227.8146</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9757</v>
+        <v>57165.2213</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60409.2715</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.1677</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10274.7881</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1373.9405</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67598.3275</v>
+        <v>-10204.6358</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0523</v>
+        <v>-0.0612</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>13.0538</v>
       </c>
+      <c r="E9" s="1">
+        <v>5037.7023</v>
+      </c>
       <c r="F9" s="1">
-        <v>787.1109</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5835.1246</v>
+        <v>781.7368</v>
       </c>
       <c r="H9" s="1">
-        <v>75775.51149999999</v>
+        <v>65420.1061</v>
       </c>
       <c r="I9" s="1">
-        <v>80824.3643</v>
+        <v>1023.1789</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8514</v>
+        <v>66443.285</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70613.90730000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.0171</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10274.7881</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1099.1524</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>76874.66379999999</v>
+        <v>-10204.6358</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>13.8433</v>
       </c>
+      <c r="E10" s="1">
+        <v>5819.4391</v>
+      </c>
       <c r="F10" s="1">
-        <v>742.221</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6577.3456</v>
+        <v>737.1534</v>
       </c>
       <c r="H10" s="1">
-        <v>90579.9149</v>
+        <v>80142.40579999999</v>
       </c>
       <c r="I10" s="1">
-        <v>91099.15240000001</v>
+        <v>818.5431</v>
       </c>
       <c r="J10" s="1">
-        <v>13.8504</v>
+        <v>80960.9489</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80818.5431</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.8877</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10274.7881</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>824.3643</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91404.2792</v>
+        <v>-10204.6358</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0521</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>14.4086</v>
       </c>
+      <c r="E11" s="1">
+        <v>6556.5925</v>
+      </c>
       <c r="F11" s="1">
-        <v>713.1011</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7290.4467</v>
+        <v>708.2323</v>
       </c>
       <c r="H11" s="1">
-        <v>104500.5335</v>
+        <v>93981.5416</v>
       </c>
       <c r="I11" s="1">
-        <v>101373.9405</v>
+        <v>613.9073</v>
       </c>
       <c r="J11" s="1">
-        <v>13.905</v>
+        <v>94595.4489</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91023.1789</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.8827</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10274.7881</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>549.5762</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>105050.1097</v>
+        <v>-10204.6358</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>14.9338</v>
       </c>
+      <c r="E12" s="1">
+        <v>7264.8248</v>
+      </c>
       <c r="F12" s="1">
-        <v>688.0223</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7978.469</v>
+        <v>683.3248</v>
       </c>
       <c r="H12" s="1">
-        <v>118530.5292</v>
+        <v>107928.4169</v>
       </c>
       <c r="I12" s="1">
-        <v>111648.7285</v>
+        <v>409.2715</v>
       </c>
       <c r="J12" s="1">
-        <v>13.9938</v>
+        <v>108337.6884</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101227.8146</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.934</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10274.7881</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>274.7881</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>118805.3173</v>
+        <v>-10204.6358</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0326</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.9313</v>
       </c>
+      <c r="E13" s="1">
+        <v>7948.1496</v>
+      </c>
       <c r="F13" s="1">
-        <v>644.9435</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8623.4125</v>
+        <v>640.5401000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>136669.8777</v>
+        <v>125967.8386</v>
       </c>
       <c r="I13" s="1">
-        <v>121923.5166</v>
+        <v>204.6358</v>
       </c>
       <c r="J13" s="1">
-        <v>14.1387</v>
+        <v>126172.4744</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111432.4504</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.0199</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10274.7881</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>136669.8777</v>
+        <v>-10204.6358</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0611</v>
+        <v>0.06619999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.0207</v>
       </c>
+      <c r="E14" s="1">
+        <v>8588.689700000001</v>
+      </c>
       <c r="F14" s="1">
-        <v>-8623.4125</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7948.1496</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>145427.1288</v>
       </c>
       <c r="I14" s="1">
-        <v>121923.5166</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>14.1387</v>
+        <v>145427.1288</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111432.4504</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.9743</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>146015.0698</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>146015.0698</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>146015.0698</v>
+        <v>134581.2484</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0045</v>
+        <v>0.068</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>13.8614</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>721.4279</v>
       </c>
       <c r="G2" s="1">
-        <v>721.4279</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.129300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8614</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.129300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>14.3229</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>721.4279</v>
       </c>
       <c r="F3" s="1">
         <v>682.2188</v>
       </c>
       <c r="G3" s="1">
-        <v>1403.6467</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10279.3369</v>
       </c>
       <c r="I3" s="1">
-        <v>19771.352</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.0857</v>
+        <v>10279.3369</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9771.352000000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.5445</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9771.352000000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>228.648</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20228.648</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0141</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>14.2341</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1403.6467</v>
       </c>
       <c r="F4" s="1">
         <v>714.9675</v>
       </c>
       <c r="G4" s="1">
-        <v>2118.6141</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>19875.9176</v>
       </c>
       <c r="I4" s="1">
-        <v>29948.2705</v>
+        <v>228.648</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1358</v>
+        <v>20104.5656</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19948.2705</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2117</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10176.9185</v>
       </c>
-      <c r="O4" s="1">
-        <v>51.7295</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30051.7295</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0059</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>13.7456</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2118.6141</v>
       </c>
       <c r="F5" s="1">
         <v>731.2689</v>
       </c>
       <c r="G5" s="1">
-        <v>2849.883</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>38970.1555</v>
+        <v>28970.5654</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>51.7295</v>
       </c>
       <c r="J5" s="1">
-        <v>14.0357</v>
+        <v>29022.2949</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.1602</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10051.7295</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38970.1555</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.027</v>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>14.5325</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2849.883</v>
       </c>
       <c r="F6" s="1">
         <v>608.6253</v>
       </c>
       <c r="G6" s="1">
-        <v>3458.5083</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41201.0439</v>
       </c>
       <c r="I6" s="1">
-        <v>48844.8465</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.1231</v>
+        <v>41201.0439</v>
       </c>
       <c r="K6" s="1">
+        <v>38844.8465</v>
+      </c>
+      <c r="L6" s="1">
+        <v>13.6303</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.75</v>
       </c>
-      <c r="L6" s="1">
-        <v>1923.671</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-6921.1754</v>
+        <v>1430.0645</v>
       </c>
       <c r="O6" s="1">
-        <v>3078.8246</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>53078.8246</v>
+        <v>-7414.7819</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0839</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>14.0538</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3458.5083</v>
       </c>
       <c r="F7" s="1">
         <v>833.0608999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>4291.5692</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>48353.0584</v>
       </c>
       <c r="I7" s="1">
-        <v>60552.5182</v>
+        <v>2585.2181</v>
       </c>
       <c r="J7" s="1">
-        <v>14.1096</v>
+        <v>50938.2765</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50552.5182</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.6169</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11707.6718</v>
       </c>
-      <c r="O7" s="1">
-        <v>1371.1528</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61371.1528</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0271</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>13.1873</v>
       </c>
       <c r="E8" s="1">
+        <v>4291.5692</v>
+      </c>
+      <c r="F8" s="1">
+        <v>824.8501</v>
+      </c>
+      <c r="G8" s="1">
         <v>70000</v>
       </c>
-      <c r="F8" s="1">
-        <v>862.2806</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5153.8498</v>
-      </c>
       <c r="H8" s="1">
-        <v>67612.84020000001</v>
+        <v>56300.6673</v>
       </c>
       <c r="I8" s="1">
-        <v>71923.671</v>
+        <v>877.5463</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9553</v>
+        <v>57178.2137</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61430.0645</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.3141</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11371.1528</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67612.84020000001</v>
+        <v>-10877.5463</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0527</v>
+        <v>-0.0617</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>13.0538</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>5116.4194</v>
       </c>
       <c r="F9" s="1">
         <v>766.0605</v>
       </c>
       <c r="G9" s="1">
-        <v>5919.9103</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>76876.5466</v>
+        <v>66442.3334</v>
       </c>
       <c r="I9" s="1">
-        <v>81923.671</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8387</v>
+        <v>66442.3334</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71430.06449999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.9609</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>76876.5466</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0095</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>13.8433</v>
       </c>
       <c r="E10" s="1">
+        <v>5882.4798</v>
+      </c>
+      <c r="F10" s="1">
+        <v>652.756</v>
+      </c>
+      <c r="G10" s="1">
         <v>90000</v>
       </c>
-      <c r="F10" s="1">
-        <v>615.3256</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6535.2358</v>
-      </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>81010.5708</v>
       </c>
       <c r="I10" s="1">
-        <v>90441.8073</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.8391</v>
+        <v>81010.5708</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80466.36169999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.679</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-8518.1363</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1481.8637</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91481.8637</v>
+        <v>-9036.2971</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.053</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>14.4086</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6535.2358</v>
       </c>
       <c r="F11" s="1">
         <v>441.2326</v>
       </c>
       <c r="G11" s="1">
-        <v>6976.4684</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>93675.4166</v>
       </c>
       <c r="I11" s="1">
-        <v>96799.3507</v>
+        <v>963.7029</v>
       </c>
       <c r="J11" s="1">
-        <v>13.8751</v>
+        <v>94639.1195</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86823.9051</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.2855</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6357.5435</v>
       </c>
-      <c r="O11" s="1">
-        <v>5124.3203</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105124.3203</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0359</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>14.9338</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6976.4684</v>
       </c>
       <c r="F12" s="1">
         <v>427.7978</v>
       </c>
       <c r="G12" s="1">
-        <v>7404.2662</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>103644.5071</v>
       </c>
       <c r="I12" s="1">
-        <v>103187.998</v>
+        <v>4606.1594</v>
       </c>
       <c r="J12" s="1">
-        <v>13.9363</v>
+        <v>108250.6665</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>93212.5524</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.361</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6388.6473</v>
       </c>
-      <c r="O12" s="1">
-        <v>8735.673000000001</v>
-      </c>
-      <c r="P12" s="1">
-        <v>118735.673</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0314</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.9313</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>7404.2662</v>
       </c>
       <c r="F13" s="1">
         <v>167.3327</v>
       </c>
       <c r="G13" s="1">
-        <v>7571.5989</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>117347.9938</v>
       </c>
       <c r="I13" s="1">
-        <v>105853.8259</v>
+        <v>8217.512199999999</v>
       </c>
       <c r="J13" s="1">
-        <v>13.9804</v>
+        <v>125565.506</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>95878.3803</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.9491</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-2665.8279</v>
       </c>
-      <c r="O13" s="1">
-        <v>16069.8451</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136069.8451</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.057</v>
+        <v>0.0619</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.0207</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7571.5989</v>
       </c>
       <c r="F14" s="1">
         <v>-7571.5989</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128205.3418</v>
       </c>
       <c r="I14" s="1">
-        <v>105853.8259</v>
+        <v>15551.6843</v>
       </c>
       <c r="J14" s="1">
-        <v>13.9804</v>
+        <v>143757.026</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>95878.3803</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6629</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128205.3418</v>
       </c>
-      <c r="O14" s="1">
-        <v>144275.1869</v>
-      </c>
-      <c r="P14" s="1">
-        <v>144275.1869</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0123</v>
+        <v>0.0604</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>13.8614</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>721.4279</v>
       </c>
       <c r="G2" s="1">
-        <v>721.4279</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.129300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8614</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.129300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>14.3229</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>721.4279</v>
       </c>
       <c r="F3" s="1">
         <v>685.7279</v>
       </c>
       <c r="G3" s="1">
-        <v>1407.1558</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10279.3369</v>
       </c>
       <c r="I3" s="1">
-        <v>19821.6127</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.0863</v>
+        <v>10279.3369</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9821.6127</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.6141</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9821.6127</v>
       </c>
-      <c r="O3" s="1">
-        <v>178.3873</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20228.3873</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.014</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>14.2341</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1407.1558</v>
       </c>
       <c r="F4" s="1">
         <v>715.0707</v>
       </c>
       <c r="G4" s="1">
-        <v>2122.2265</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30051.151</v>
+        <v>19925.6074</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>178.3873</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1361</v>
+        <v>20103.9947</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.2131</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10178.3873</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30051.151</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0059</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>13.7456</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2122.2265</v>
       </c>
       <c r="F5" s="1">
         <v>727.5055</v>
       </c>
       <c r="G5" s="1">
-        <v>2849.732</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>38968.09</v>
+        <v>29019.9612</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.0364</v>
+        <v>29019.9612</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.1361</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38968.09</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.027</v>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>14.5325</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2849.732</v>
       </c>
       <c r="F6" s="1">
         <v>643.5347</v>
       </c>
       <c r="G6" s="1">
-        <v>3493.2667</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41198.8602</v>
       </c>
       <c r="I6" s="1">
-        <v>49352.1686</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.1278</v>
+        <v>41198.8602</v>
       </c>
       <c r="K6" s="1">
+        <v>39352.1686</v>
+      </c>
+      <c r="L6" s="1">
+        <v>13.8091</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.75</v>
       </c>
-      <c r="L6" s="1">
-        <v>1923.5691</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-7428.5995</v>
+        <v>1432.5029</v>
       </c>
       <c r="O6" s="1">
-        <v>2571.4005</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>53073.9068</v>
+        <v>-7919.6657</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0838</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>14.0538</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3493.2667</v>
       </c>
       <c r="F7" s="1">
         <v>852.3061</v>
       </c>
       <c r="G7" s="1">
-        <v>4345.5728</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>48839.0126</v>
       </c>
       <c r="I7" s="1">
-        <v>61330.3078</v>
+        <v>2080.3343</v>
       </c>
       <c r="J7" s="1">
-        <v>14.1133</v>
+        <v>50919.3469</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>51330.3078</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.6941</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11978.1393</v>
       </c>
-      <c r="O7" s="1">
-        <v>593.2613</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61348.28</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0274</v>
+        <v>-0.0055</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>13.1873</v>
       </c>
       <c r="E8" s="1">
+        <v>4345.5728</v>
+      </c>
+      <c r="F8" s="1">
+        <v>766.0548</v>
+      </c>
+      <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
-      <c r="F8" s="1">
-        <v>803.2927</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5148.8655</v>
-      </c>
       <c r="H8" s="1">
-        <v>67547.45110000001</v>
+        <v>57009.135</v>
       </c>
       <c r="I8" s="1">
-        <v>71923.56909999999</v>
+        <v>102.195</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9688</v>
+        <v>57111.3301</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61432.5029</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.1368</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10593.2613</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67547.45110000001</v>
+        <v>-10102.195</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0533</v>
+        <v>-0.0625</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>13.0538</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>5111.6276</v>
       </c>
       <c r="F9" s="1">
         <v>766.0605</v>
       </c>
       <c r="G9" s="1">
-        <v>5914.9259</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>76811.81939999999</v>
+        <v>66380.1078</v>
       </c>
       <c r="I9" s="1">
-        <v>81923.56909999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8503</v>
+        <v>66380.1078</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71432.50290000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.9745</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>76811.81939999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0095</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>13.8433</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5877.6881</v>
       </c>
       <c r="F10" s="1">
         <v>722.3711</v>
       </c>
       <c r="G10" s="1">
-        <v>6637.297</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91405.53599999999</v>
+        <v>80944.5817</v>
       </c>
       <c r="I10" s="1">
-        <v>91923.56909999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.8495</v>
+        <v>80944.5817</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81432.50290000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.8545</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91405.53599999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0529</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>14.4086</v>
       </c>
       <c r="E11" s="1">
+        <v>6600.0592</v>
+      </c>
+      <c r="F11" s="1">
+        <v>535.4911</v>
+      </c>
+      <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
-      <c r="F11" s="1">
-        <v>498.2532</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7135.5503</v>
-      </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>94604.5888</v>
       </c>
       <c r="I11" s="1">
-        <v>99102.70080000001</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.8886</v>
+        <v>94604.5888</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89148.17939999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.5072</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-7179.1317</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>2820.8683</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>105101.1323</v>
+        <v>-7715.6765</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0364</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>14.9338</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>7135.5503</v>
       </c>
       <c r="F12" s="1">
         <v>456.6271</v>
       </c>
       <c r="G12" s="1">
-        <v>7592.1774</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>106007.8755</v>
       </c>
       <c r="I12" s="1">
-        <v>105921.8793</v>
+        <v>2284.3235</v>
       </c>
       <c r="J12" s="1">
-        <v>13.9514</v>
+        <v>108292.199</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95967.3578</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.4492</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6819.1785</v>
       </c>
-      <c r="O12" s="1">
-        <v>6001.6898</v>
-      </c>
-      <c r="P12" s="1">
-        <v>118793.3552</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0321</v>
+        <v>0.0353</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.9313</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>7592.1774</v>
       </c>
       <c r="F13" s="1">
         <v>191.1502</v>
       </c>
       <c r="G13" s="1">
-        <v>7783.3276</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>120326.1423</v>
       </c>
       <c r="I13" s="1">
-        <v>108967.1497</v>
+        <v>5465.145</v>
       </c>
       <c r="J13" s="1">
-        <v>14.0001</v>
+        <v>125791.2873</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>99012.6283</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.0414</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-3045.2705</v>
       </c>
-      <c r="O13" s="1">
-        <v>12956.4193</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136312.0431</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0584</v>
+        <v>0.0634</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.0207</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7783.3276</v>
       </c>
       <c r="F14" s="1">
         <v>-7783.3276</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131790.4158</v>
       </c>
       <c r="I14" s="1">
-        <v>108967.1497</v>
+        <v>12419.8746</v>
       </c>
       <c r="J14" s="1">
-        <v>14.0001</v>
+        <v>144210.2904</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>99012.6283</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.7211</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>131790.4158</v>
       </c>
-      <c r="O14" s="1">
-        <v>144746.8352</v>
-      </c>
-      <c r="P14" s="1">
-        <v>144746.8352</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0107</v>
+        <v>0.062</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>13.8614</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>721.4279</v>
       </c>
       <c r="G2" s="1">
-        <v>721.4279</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.129300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8614</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.129300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>14.3229</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>721.4279</v>
       </c>
       <c r="F3" s="1">
         <v>689.2371000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1410.6649</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10279.3369</v>
       </c>
       <c r="I3" s="1">
-        <v>19871.8734</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.0869</v>
+        <v>10279.3369</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9871.8734</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.6838</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9871.8734</v>
       </c>
-      <c r="O3" s="1">
-        <v>128.1266</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20228.1266</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.014</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>14.2341</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1410.6649</v>
       </c>
       <c r="F4" s="1">
         <v>711.5397</v>
       </c>
       <c r="G4" s="1">
-        <v>2122.2046</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30050.841</v>
+        <v>19975.2972</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>128.1266</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1362</v>
+        <v>20103.4238</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.1777</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10128.1266</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30050.841</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0059</v>
+        <v>-0.008699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>13.7456</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2122.2046</v>
       </c>
       <c r="F5" s="1">
         <v>727.5055</v>
       </c>
       <c r="G5" s="1">
-        <v>2849.7101</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>38967.7907</v>
+        <v>29019.6618</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.0365</v>
+        <v>29019.6618</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.1362</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38967.7907</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.027</v>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>14.5325</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2849.7101</v>
       </c>
       <c r="F6" s="1">
         <v>678.6635</v>
       </c>
       <c r="G6" s="1">
-        <v>3528.3736</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41198.5437</v>
       </c>
       <c r="I6" s="1">
-        <v>49862.6776</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.1319</v>
+        <v>41198.5437</v>
       </c>
       <c r="K6" s="1">
+        <v>39862.6776</v>
+      </c>
+      <c r="L6" s="1">
+        <v>13.9883</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.75</v>
       </c>
-      <c r="L6" s="1">
-        <v>1923.5543</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-7939.1233</v>
+        <v>1432.4881</v>
       </c>
       <c r="O6" s="1">
-        <v>2060.8767</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>53070.9268</v>
+        <v>-8430.1895</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0838</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>14.0538</v>
       </c>
       <c r="E7" s="1">
+        <v>3528.3736</v>
+      </c>
+      <c r="F7" s="1">
+        <v>823.2514</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>858.1933</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4386.5669</v>
-      </c>
       <c r="H7" s="1">
-        <v>61328.153</v>
+        <v>49329.8386</v>
       </c>
       <c r="I7" s="1">
-        <v>61923.5543</v>
+        <v>1569.8105</v>
       </c>
       <c r="J7" s="1">
-        <v>14.1166</v>
+        <v>50899.649</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>51432.4881</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.5768</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-12060.8767</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61328.153</v>
+        <v>-11569.8105</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0276</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>13.1873</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4351.625</v>
       </c>
       <c r="F8" s="1">
         <v>758.3053</v>
       </c>
       <c r="G8" s="1">
-        <v>5144.8722</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>67495.06419999999</v>
+        <v>57088.5333</v>
       </c>
       <c r="I8" s="1">
-        <v>71923.5543</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9797</v>
+        <v>57088.5333</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61432.4881</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.1171</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67495.06419999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0537</v>
+        <v>-0.0626</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>13.0538</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5109.9303</v>
       </c>
       <c r="F9" s="1">
         <v>766.0605</v>
       </c>
       <c r="G9" s="1">
-        <v>5910.9327</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>76759.9629</v>
+        <v>66358.0664</v>
       </c>
       <c r="I9" s="1">
-        <v>81923.5543</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8597</v>
+        <v>66358.0664</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71432.4881</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.9792</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>76759.9629</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0095</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>13.8433</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5875.9908</v>
       </c>
       <c r="F10" s="1">
         <v>722.3711</v>
       </c>
       <c r="G10" s="1">
-        <v>6633.3038</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>91350.5432</v>
+        <v>80921.20729999999</v>
       </c>
       <c r="I10" s="1">
-        <v>91923.5543</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.8579</v>
+        <v>80921.20729999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81432.4881</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.8585</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91350.5432</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0529</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>14.4086</v>
       </c>
       <c r="E11" s="1">
+        <v>6598.3619</v>
+      </c>
+      <c r="F11" s="1">
+        <v>694.03</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>665.6257000000001</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7298.9295</v>
-      </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>94580.2598</v>
       </c>
       <c r="I11" s="1">
-        <v>101514.2887</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.9081</v>
+        <v>94580.2598</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91432.4881</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.8568</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-9590.734399999999</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>409.2656</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>105031.391</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0363</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>14.9338</v>
       </c>
       <c r="E12" s="1">
+        <v>7292.3919</v>
+      </c>
+      <c r="F12" s="1">
+        <v>493.4193</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>486.8817</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7785.8112</v>
-      </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>108337.9613</v>
       </c>
       <c r="I12" s="1">
-        <v>108785.2825</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.9722</v>
+        <v>108337.9613</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98801.11350000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.5485</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-7270.9938</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>3138.2718</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>118806.6185</v>
+        <v>-7368.6254</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0328</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.9313</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>7785.8112</v>
       </c>
       <c r="F13" s="1">
         <v>216.4243</v>
       </c>
       <c r="G13" s="1">
-        <v>8002.2355</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>123394.9857</v>
       </c>
       <c r="I13" s="1">
-        <v>112233.2036</v>
+        <v>2631.3746</v>
       </c>
       <c r="J13" s="1">
-        <v>14.0252</v>
+        <v>126026.3603</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>102249.0346</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.1327</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-3447.9211</v>
       </c>
-      <c r="O13" s="1">
-        <v>9690.350700000001</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136515.3808</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0598</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.0207</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8002.2355</v>
       </c>
       <c r="F14" s="1">
         <v>-8002.2355</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>135497.0528</v>
       </c>
       <c r="I14" s="1">
-        <v>112233.2036</v>
+        <v>9183.4535</v>
       </c>
       <c r="J14" s="1">
-        <v>14.0252</v>
+        <v>144680.5063</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>102249.0346</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.7776</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>135497.0528</v>
       </c>
-      <c r="O14" s="1">
-        <v>145187.4035</v>
-      </c>
-      <c r="P14" s="1">
-        <v>145187.4035</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0091</v>
+        <v>0.0636</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>13.8614</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>721.4279</v>
       </c>
       <c r="G2" s="1">
-        <v>721.4279</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.129300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.8614</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.129300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>14.3229</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>721.4279</v>
       </c>
       <c r="F3" s="1">
         <v>692.7462</v>
       </c>
       <c r="G3" s="1">
-        <v>1414.174</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10279.3369</v>
       </c>
       <c r="I3" s="1">
-        <v>19922.1342</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>14.0875</v>
+        <v>10279.3369</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9922.1342</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.7535</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9922.1342</v>
       </c>
-      <c r="O3" s="1">
-        <v>77.86579999999999</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20227.8658</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.014</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>14.2341</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1414.174</v>
       </c>
       <c r="F4" s="1">
         <v>708.0086</v>
       </c>
       <c r="G4" s="1">
-        <v>2122.1827</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30050.531</v>
+        <v>20024.987</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>77.86579999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1364</v>
+        <v>20102.8528</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.1425</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10077.8658</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30050.531</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0059</v>
+        <v>-0.008699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>13.7456</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2122.1827</v>
       </c>
       <c r="F5" s="1">
         <v>727.5055</v>
       </c>
       <c r="G5" s="1">
-        <v>2849.6882</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>38967.4913</v>
+        <v>29019.3624</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.0366</v>
+        <v>29019.3624</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.1364</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38967.4913</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.027</v>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>14.5325</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2849.6882</v>
       </c>
       <c r="F6" s="1">
         <v>688.1129</v>
       </c>
       <c r="G6" s="1">
-        <v>3537.801</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51146.3435</v>
+        <v>41198.2272</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.1331</v>
+        <v>41198.2272</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>14.0366</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.75</v>
       </c>
-      <c r="L6" s="1">
-        <v>1923.5395</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8076.4605</v>
+        <v>1432.4733</v>
       </c>
       <c r="O6" s="1">
-        <v>1923.5395</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>53069.883</v>
+        <v>-8567.5267</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0838</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>14.0538</v>
       </c>
       <c r="E7" s="1">
+        <v>3537.801</v>
+      </c>
+      <c r="F7" s="1">
+        <v>813.4792</v>
+      </c>
+      <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
-      <c r="F7" s="1">
-        <v>848.421</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4386.2221</v>
-      </c>
       <c r="H7" s="1">
-        <v>61323.3323</v>
+        <v>49461.6427</v>
       </c>
       <c r="I7" s="1">
-        <v>61923.5395</v>
+        <v>1432.4733</v>
       </c>
       <c r="J7" s="1">
-        <v>14.1177</v>
+        <v>50894.116</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>51432.4733</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.538</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-11923.5395</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61323.3323</v>
+        <v>-11432.4733</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0277</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>13.1873</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4351.2802</v>
       </c>
       <c r="F8" s="1">
         <v>758.3053</v>
       </c>
       <c r="G8" s="1">
-        <v>5144.5274</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>67490.5408</v>
+        <v>57084.0098</v>
       </c>
       <c r="I8" s="1">
-        <v>71923.5395</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.9806</v>
+        <v>57084.0098</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61432.4733</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.1183</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>67490.5408</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0537</v>
+        <v>-0.0626</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>13.0538</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5109.5855</v>
       </c>
       <c r="F9" s="1">
         <v>766.0605</v>
       </c>
       <c r="G9" s="1">
-        <v>5910.5879</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>76755.4852</v>
+        <v>66353.58869999999</v>
       </c>
       <c r="I9" s="1">
-        <v>81923.5395</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8605</v>
+        <v>66353.58869999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71432.4733</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.9801</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>76755.4852</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0095</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>13.8433</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5875.646</v>
       </c>
       <c r="F10" s="1">
         <v>722.3711</v>
       </c>
       <c r="G10" s="1">
-        <v>6632.959</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>91345.7947</v>
+        <v>80916.45879999999</v>
       </c>
       <c r="I10" s="1">
-        <v>91923.5395</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.8586</v>
+        <v>80916.45879999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81432.4733</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.8593</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91345.7947</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0529</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>14.4086</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6598.0171</v>
       </c>
       <c r="F11" s="1">
         <v>694.03</v>
       </c>
       <c r="G11" s="1">
-        <v>7326.9889</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>105024.3268</v>
+        <v>94575.3174</v>
       </c>
       <c r="I11" s="1">
-        <v>101923.5395</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.9107</v>
+        <v>94575.3174</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91432.4733</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.8576</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105024.3268</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0363</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>14.9338</v>
       </c>
       <c r="E12" s="1">
+        <v>7292.0471</v>
+      </c>
+      <c r="F12" s="1">
+        <v>669.6219</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>658.3523</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7985.3412</v>
-      </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>108332.8387</v>
       </c>
       <c r="I12" s="1">
-        <v>111755.2409</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.995</v>
+        <v>108332.8387</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101432.4733</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.91</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-9831.7014</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>168.2986</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>118800.9235</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0328</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.9313</v>
       </c>
       <c r="E13" s="1">
+        <v>7961.669</v>
+      </c>
+      <c r="F13" s="1">
+        <v>266.8996</v>
+      </c>
+      <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
-      <c r="F13" s="1">
-        <v>243.2273</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8228.568499999999</v>
-      </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>126182.1033</v>
       </c>
       <c r="I13" s="1">
-        <v>115630.1682</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>14.0523</v>
+        <v>126182.1033</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>105684.5302</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.2742</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-3874.9273</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>6293.3713</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>136705.4856</v>
+        <v>-4252.0569</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0614</v>
+        <v>0.0663</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>17.0207</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8228.568499999999</v>
       </c>
       <c r="F14" s="1">
         <v>-8228.568499999999</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>139329.414</v>
       </c>
       <c r="I14" s="1">
-        <v>115630.1682</v>
+        <v>5747.9431</v>
       </c>
       <c r="J14" s="1">
-        <v>14.0523</v>
+        <v>145077.3572</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>105684.5302</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.8436</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>139329.414</v>
       </c>
-      <c r="O14" s="1">
-        <v>145622.7853</v>
-      </c>
-      <c r="P14" s="1">
-        <v>145622.7853</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0074</v>
+        <v>0.0653</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4451,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.9748</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1387</v>
+        <v>12.9743</v>
       </c>
       <c r="D3" s="1">
-        <v>13.9804</v>
+        <v>12.6629</v>
       </c>
       <c r="E3" s="1">
-        <v>14.0001</v>
+        <v>12.7211</v>
       </c>
       <c r="F3" s="1">
-        <v>14.0252</v>
+        <v>12.7776</v>
       </c>
       <c r="G3" s="1">
-        <v>14.0523</v>
+        <v>12.8436</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2182</v>
       </c>
       <c r="C4" s="3">
-        <v>0.153</v>
+        <v>0.2301</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1408</v>
+        <v>0.2178</v>
       </c>
       <c r="E4" s="3">
-        <v>0.144</v>
+        <v>0.2209</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1469</v>
+        <v>0.2243</v>
       </c>
       <c r="G4" s="3">
-        <v>0.15</v>
+        <v>0.2273</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1497</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1358</v>
+        <v>0.1419</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1357</v>
+        <v>0.1382</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1365</v>
+        <v>0.1398</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1371</v>
+        <v>0.1411</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1374</v>
+        <v>0.1421</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.322</v>
       </c>
       <c r="C6" s="4">
-        <v>0.9769</v>
+        <v>1.4789</v>
       </c>
       <c r="D6" s="4">
-        <v>0.888</v>
+        <v>1.4294</v>
       </c>
       <c r="E6" s="4">
-        <v>0.9063</v>
+        <v>1.4343</v>
       </c>
       <c r="F6" s="4">
-        <v>0.9235</v>
+        <v>1.4462</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9441000000000001</v>
+        <v>1.4567</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.4276</v>
+        <v>0.2335</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4122</v>
+        <v>0.4013</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4145</v>
+        <v>0.4036</v>
       </c>
       <c r="F7" s="3">
-        <v>0.4169</v>
+        <v>0.4071</v>
       </c>
       <c r="G7" s="3">
-        <v>0.4208</v>
+        <v>0.4108</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1923.5166</v>
+        <v>1432.4504</v>
       </c>
       <c r="D8" s="1">
-        <v>1923.671</v>
+        <v>1430.0645</v>
       </c>
       <c r="E8" s="1">
-        <v>1923.5691</v>
+        <v>1432.5029</v>
       </c>
       <c r="F8" s="1">
-        <v>1923.5543</v>
+        <v>1432.4881</v>
       </c>
       <c r="G8" s="1">
-        <v>1923.5395</v>
+        <v>1432.4733</v>
       </c>
     </row>
   </sheetData>
